--- a/4_genome_summary_stats/240725_genome_summary_stats.xlsx
+++ b/4_genome_summary_stats/240725_genome_summary_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oakem\Documents\230904_moru\240725_folder_for_jeanne\240725_all_genomes_to-date_annotated\genome_summary_statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oakem\Documents\ot_genome_project\4_genome_summary_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE7EEF-7DE4-46BE-A81D-C43B50D49AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE31E6E-B1C2-456A-AC58-444940AA0B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D477CBD-13F8-4815-B2F1-E631B1A6EAD7}"/>
   </bookViews>
@@ -5308,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500A7C62-6B98-476B-B193-0C6D1814979C}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
